--- a/StructureDefinition-MLParameterRequest.xlsx
+++ b/StructureDefinition-MLParameterRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T18:36:24+00:00</t>
+    <t>2022-07-09T09:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLParameterRequest.xlsx
+++ b/StructureDefinition-MLParameterRequest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$406</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$414</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13336" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13598" uniqueCount="224">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T09:32:33+00:00</t>
+    <t>2022-07-14T15:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -705,6 +705,9 @@
   <si>
     <t>part.aep</t>
   </si>
+  <si>
+    <t>TIPO_PARTO</t>
+  </si>
 </sst>
 </file>
 
@@ -1023,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK406"/>
+  <dimension ref="A1:AK414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1032,43 +1035,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.08203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="52.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.71875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.72265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1720,7 +1723,7 @@
         <v>111</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>83</v>
@@ -43503,8 +43506,844 @@
         <v>74</v>
       </c>
     </row>
+    <row r="407">
+      <c r="A407" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B407" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D407" s="2"/>
+      <c r="E407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F407" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G407" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I407" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J407" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K407" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L407" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M407" s="2"/>
+      <c r="N407" s="2"/>
+      <c r="O407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P407" s="2"/>
+      <c r="Q407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE407" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG407" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI407" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ407" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK407" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="408" hidden="true">
+      <c r="A408" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B408" s="2"/>
+      <c r="C408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D408" s="2"/>
+      <c r="E408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F408" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J408" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K408" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L408" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M408" s="2"/>
+      <c r="N408" s="2"/>
+      <c r="O408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P408" s="2"/>
+      <c r="Q408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE408" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG408" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ408" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK408" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="409" hidden="true">
+      <c r="A409" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B409" s="2"/>
+      <c r="C409" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="D409" s="2"/>
+      <c r="E409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F409" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J409" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K409" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L409" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M409" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N409" s="2"/>
+      <c r="O409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P409" s="2"/>
+      <c r="Q409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE409" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG409" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI409" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ409" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK409" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="410" hidden="true">
+      <c r="A410" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B410" s="2"/>
+      <c r="C410" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D410" s="2"/>
+      <c r="E410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F410" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H410" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I410" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J410" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K410" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L410" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M410" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N410" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P410" s="2"/>
+      <c r="Q410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE410" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG410" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI410" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ410" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK410" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="411" hidden="true">
+      <c r="A411" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B411" s="2"/>
+      <c r="C411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D411" s="2"/>
+      <c r="E411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I411" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J411" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K411" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L411" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M411" s="2"/>
+      <c r="N411" s="2"/>
+      <c r="O411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P411" s="2"/>
+      <c r="Q411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R411" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="S411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE411" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI411" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ411" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK411" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="412" hidden="true">
+      <c r="A412" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B412" s="2"/>
+      <c r="C412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D412" s="2"/>
+      <c r="E412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F412" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I412" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J412" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K412" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L412" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M412" s="2"/>
+      <c r="N412" s="2"/>
+      <c r="O412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P412" s="2"/>
+      <c r="Q412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE412" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG412" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH412" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AI412" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ412" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK412" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="413" hidden="true">
+      <c r="A413" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B413" s="2"/>
+      <c r="C413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D413" s="2"/>
+      <c r="E413" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F413" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I413" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J413" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K413" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L413" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M413" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N413" s="2"/>
+      <c r="O413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P413" s="2"/>
+      <c r="Q413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE413" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF413" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG413" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH413" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AI413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK413" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="414" hidden="true">
+      <c r="A414" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B414" s="2"/>
+      <c r="C414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D414" s="2"/>
+      <c r="E414" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F414" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I414" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K414" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L414" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M414" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N414" s="2"/>
+      <c r="O414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P414" s="2"/>
+      <c r="Q414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE414" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF414" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG414" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI414" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ414" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK414" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK406">
+  <autoFilter ref="A1:AK414">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -43514,7 +44353,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI405">
+  <conditionalFormatting sqref="A2:AI413">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MLParameterRequest.xlsx
+++ b/StructureDefinition-MLParameterRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T15:59:36+00:00</t>
+    <t>2022-07-14T16:27:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -509,7 +509,7 @@
     <t>ESTIMATIVA_PESO_ECO_39</t>
   </si>
   <si>
-    <t xml:space="preserve">integer
+    <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
@@ -528,6 +528,10 @@
     <t>PESO_INICIAL</t>
   </si>
   <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
     <t>ESTIMATIVA_PESO_ECO_32</t>
   </si>
   <si>
@@ -538,10 +542,6 @@
   </si>
   <si>
     <t>IMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
   </si>
   <si>
     <t>APRESENTACAO_32</t>
@@ -8942,7 +8942,7 @@
         <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>142</v>
@@ -9235,7 +9235,7 @@
         <v>110</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>74</v>
@@ -9693,7 +9693,7 @@
         <v>74</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>74</v>
@@ -10071,7 +10071,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>74</v>
@@ -10529,7 +10529,7 @@
         <v>74</v>
       </c>
       <c r="R91" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>74</v>
@@ -10614,7 +10614,7 @@
         <v>83</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>142</v>
@@ -10907,7 +10907,7 @@
         <v>110</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>74</v>
@@ -11365,7 +11365,7 @@
         <v>74</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>74</v>
@@ -11743,7 +11743,7 @@
         <v>110</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>74</v>
@@ -12201,7 +12201,7 @@
         <v>74</v>
       </c>
       <c r="R107" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>74</v>
@@ -12286,7 +12286,7 @@
         <v>83</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>142</v>
@@ -18974,7 +18974,7 @@
         <v>83</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>142</v>
@@ -25662,7 +25662,7 @@
         <v>83</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K236" t="s" s="2">
         <v>142</v>

--- a/StructureDefinition-MLParameterRequest.xlsx
+++ b/StructureDefinition-MLParameterRequest.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/example/StructureDefinition/MLParameterRequest</t>
+    <t>https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MLParameterRequest</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T16:27:57+00:00</t>
+    <t>2022-07-15T07:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLParameterRequest.xlsx
+++ b/StructureDefinition-MLParameterRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:25:18+00:00</t>
+    <t>2022-07-15T07:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLParameterRequest.xlsx
+++ b/StructureDefinition-MLParameterRequest.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MLParameterRequest</t>
+    <t>https://joofio.github.io/obs-cdss-fhir/StructureDefinition/MLParameterRequest</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:32:14+00:00</t>
+    <t>2022-07-15T07:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MLParameterRequest.xlsx
+++ b/StructureDefinition-MLParameterRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T07:59:46+00:00</t>
+    <t>2022-08-18T10:28:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
